--- a/data/email_classification_annotated_data.xlsx
+++ b/data/email_classification_annotated_data.xlsx
@@ -8,30 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saideepbunny/Projects/Email-Assistant-using-Generative-AI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A9FDC0-22D4-014F-802D-00DC905B6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92F239-AE97-A54A-8FC1-2A7133CB6BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="annotated_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Prompt-1 results" sheetId="2" r:id="rId2"/>
-    <sheet name="Prompt-2 results" sheetId="3" r:id="rId3"/>
-    <sheet name="Prompt-3 results" sheetId="4" r:id="rId4"/>
-    <sheet name="Prompt-2 results with inline fe" sheetId="5" r:id="rId5"/>
-    <sheet name="Prompt-2 results with langchain" sheetId="6" r:id="rId6"/>
-    <sheet name="Prompt-4 results" sheetId="7" r:id="rId7"/>
+    <sheet name="updated_annotated_data" sheetId="1" r:id="rId1"/>
+    <sheet name="annotated_data" sheetId="2" r:id="rId2"/>
+    <sheet name="Prompt-1 results" sheetId="3" r:id="rId3"/>
+    <sheet name="Prompt-2 results" sheetId="4" r:id="rId4"/>
+    <sheet name="Prompt-3 results" sheetId="5" r:id="rId5"/>
+    <sheet name="Prompt-2 results with inline fe" sheetId="6" r:id="rId6"/>
+    <sheet name="Prompt-2 results with langchain" sheetId="7" r:id="rId7"/>
+    <sheet name="Prompt-4 results" sheetId="8" r:id="rId8"/>
+    <sheet name="Prompt-1 results1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="64">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>label</t>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>MEET</t>
+  </si>
+  <si>
+    <t>OTHER</t>
   </si>
   <si>
     <t>Hi Saideep,
@@ -40,9 +48,6 @@
 Thank you, 
 iSpot Recruiting Team
 ** Please note: Do not reply to this email. This email is sent from an unattended mailbox. Replies will not be read.</t>
-  </si>
-  <si>
-    <t>JOB</t>
   </si>
   <si>
     <t>Hello, Saideep,
@@ -119,9 +124,6 @@
 Let me know what works for your schedule!
 Best,
 Marcus</t>
-  </si>
-  <si>
-    <t>MEET</t>
   </si>
   <si>
     <t>Hey Tom,
@@ -214,9 +216,6 @@
 pip install -U huggingface_hub
 If you run into any issues or have questions, don't hesitate to reply to this email - we're here to help.
 P.S. Going PRO supports free public storage (and the community) while unlocking 10x private storage and boosts to ZeroGPU and inference. We encourage you to subscribe to access power features.</t>
-  </si>
-  <si>
-    <t>OTHER</t>
   </si>
   <si>
     <t>Welcome back D.B.!
@@ -572,6 +571,9 @@
 </t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>gemma_results</t>
   </si>
   <si>
@@ -580,12 +582,30 @@
   <si>
     <t>llama_results</t>
   </si>
+  <si>
+    <t>True,False,True</t>
+  </si>
+  <si>
+    <t>True,False,False</t>
+  </si>
+  <si>
+    <t>True,True,False</t>
+  </si>
+  <si>
+    <t>False,False,True</t>
+  </si>
+  <si>
+    <t>False,True,True</t>
+  </si>
+  <si>
+    <t>False,True,False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +625,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -614,7 +645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -652,11 +683,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -665,6 +711,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -971,8 +1023,745 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="350" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="320" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="320" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="350" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="256" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -993,90 +1782,90 @@
     </row>
     <row r="2" spans="1:6" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
@@ -1084,7 +1873,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
@@ -1092,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
@@ -1100,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.2">
@@ -1108,7 +1897,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="128" customHeight="1" x14ac:dyDescent="0.2">
@@ -1116,7 +1905,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="320" customHeight="1" x14ac:dyDescent="0.2">
@@ -1124,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="192" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,7 +1921,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="224" customHeight="1" x14ac:dyDescent="0.2">
@@ -1140,7 +1929,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="192" customHeight="1" x14ac:dyDescent="0.2">
@@ -1148,7 +1937,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1156,1119 +1945,239 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2280,22 +2189,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>55</v>
@@ -2309,189 +2212,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2499,16 +2402,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2516,16 +2419,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2533,16 +2436,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2550,16 +2453,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2567,16 +2470,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2584,16 +2487,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2601,16 +2504,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2618,16 +2521,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2635,16 +2538,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2652,509 +2555,509 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3169,13 +3072,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>55</v>
@@ -3189,189 +3098,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3379,16 +3288,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3396,16 +3305,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3413,16 +3322,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3430,16 +3339,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3447,16 +3356,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3464,16 +3373,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3481,16 +3390,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3498,16 +3407,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3515,16 +3424,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3532,509 +3441,509 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>55</v>
@@ -4069,189 +3978,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4259,16 +4168,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4276,16 +4185,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4293,16 +4202,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4310,16 +4219,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4327,16 +4236,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4344,16 +4253,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4361,16 +4270,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -4378,16 +4287,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -4395,16 +4304,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -4412,509 +4321,509 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4935,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>55</v>
@@ -4949,189 +4858,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5139,16 +5048,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5156,16 +5065,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5173,16 +5082,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5190,16 +5099,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5207,16 +5116,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5224,16 +5133,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -5241,16 +5150,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -5258,16 +5167,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -5275,16 +5184,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -5292,509 +5201,509 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5815,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>55</v>
@@ -5829,189 +5738,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6019,16 +5928,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6036,16 +5945,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6053,16 +5962,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6070,16 +5979,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -6087,16 +5996,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -6104,16 +6013,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -6121,16 +6030,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -6138,16 +6047,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -6155,16 +6064,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6172,509 +6081,2575 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
